--- a/Projects/PEM_Spring/Requirement_Analysis/Personal Expense Manager.xlsx
+++ b/Projects/PEM_Spring/Requirement_Analysis/Personal Expense Manager.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Requirement" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="73">
   <si>
     <t>Personal Expense Manager</t>
   </si>
@@ -56,9 +56,6 @@
     <t>categoryId</t>
   </si>
   <si>
-    <t>CategoryId</t>
-  </si>
-  <si>
     <t>lastname</t>
   </si>
   <si>
@@ -234,6 +231,12 @@
   </si>
   <si>
     <t>Logged in User can add Expense per category</t>
+  </si>
+  <si>
+    <t>PK</t>
+  </si>
+  <si>
+    <t>FK</t>
   </si>
 </sst>
 </file>
@@ -470,7 +473,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -482,27 +485,54 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -521,32 +551,8 @@
     <xf numFmtId="0" fontId="7" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -980,7 +986,7 @@
   <dimension ref="B2:K27"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -994,33 +1000,33 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="28.5">
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
     </row>
     <row r="4" spans="2:11" ht="21">
       <c r="B4" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="D4" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="E4" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="F4" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="G4" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="H4" s="5" t="s">
         <v>25</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>26</v>
       </c>
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
@@ -1031,20 +1037,20 @@
         <v>1</v>
       </c>
       <c r="C5" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="D5" s="6" t="s">
-        <v>28</v>
-      </c>
       <c r="E5" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5" s="6" t="s">
         <v>30</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>31</v>
       </c>
       <c r="G5" s="6"/>
       <c r="H5" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="2:11">
@@ -1052,20 +1058,20 @@
         <v>2</v>
       </c>
       <c r="C6" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="E6" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="D6" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="E6" s="6" t="s">
+      <c r="F6" s="6" t="s">
         <v>30</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>31</v>
       </c>
       <c r="G6" s="6"/>
       <c r="H6" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="2:11">
@@ -1073,20 +1079,20 @@
         <v>3</v>
       </c>
       <c r="C7" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="D7" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="D7" s="6" t="s">
-        <v>68</v>
-      </c>
       <c r="E7" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F7" s="6" t="s">
         <v>30</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>31</v>
       </c>
       <c r="G7" s="6"/>
       <c r="H7" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="2:11">
@@ -1094,20 +1100,20 @@
         <v>4</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E8" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F8" s="6" t="s">
         <v>30</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>31</v>
       </c>
       <c r="G8" s="6"/>
       <c r="H8" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="2:11">
@@ -1115,20 +1121,20 @@
         <v>5</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G9" s="6"/>
       <c r="H9" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="2:11">
@@ -1136,22 +1142,22 @@
         <v>6</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E10" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F10" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="F10" s="6" t="s">
-        <v>31</v>
-      </c>
       <c r="G10" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="H10" s="6" t="s">
         <v>41</v>
-      </c>
-      <c r="H10" s="6" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="11" spans="2:11">
@@ -1159,20 +1165,20 @@
         <v>7</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G11" s="6"/>
       <c r="H11" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="2:11">
@@ -1180,20 +1186,20 @@
         <v>8</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E12" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F12" s="6" t="s">
         <v>30</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>31</v>
       </c>
       <c r="G12" s="6"/>
       <c r="H12" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="2:11">
@@ -1201,20 +1207,20 @@
         <v>9</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G13" s="6"/>
       <c r="H13" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="14" spans="2:11">
@@ -1222,20 +1228,20 @@
         <v>10</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G14" s="6"/>
       <c r="H14" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="2:11">
@@ -1243,100 +1249,100 @@
         <v>11</v>
       </c>
       <c r="C15" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="E15" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="D15" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>39</v>
-      </c>
       <c r="F15" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="16" spans="2:11">
       <c r="D16" s="1"/>
     </row>
     <row r="18" spans="2:5" ht="18.75">
-      <c r="B18" s="7" t="s">
+      <c r="B18" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+    </row>
+    <row r="19" spans="2:5">
+      <c r="B19" s="7"/>
+      <c r="C19" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-    </row>
-    <row r="19" spans="2:5">
-      <c r="B19" s="8"/>
-      <c r="C19" s="9" t="s">
+      <c r="D19" s="7"/>
+      <c r="E19" s="1"/>
+    </row>
+    <row r="20" spans="2:5">
+      <c r="B20" s="7"/>
+      <c r="C20" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="D19" s="8"/>
-      <c r="E19" s="1"/>
-    </row>
-    <row r="20" spans="2:5">
-      <c r="B20" s="8"/>
-      <c r="C20" s="9" t="s">
+      <c r="D20" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="D20" s="8" t="s">
+    </row>
+    <row r="21" spans="2:5">
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="E21" s="1"/>
+    </row>
+    <row r="22" spans="2:5">
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="21" spans="2:5">
-      <c r="B21" s="8"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="E21" s="1"/>
-    </row>
-    <row r="22" spans="2:5">
-      <c r="B22" s="8"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8" t="s">
+    <row r="23" spans="2:5">
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="23" spans="2:5">
-      <c r="B23" s="8"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8" t="s">
+    <row r="24" spans="2:5">
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="24" spans="2:5">
-      <c r="B24" s="8"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="8" t="s">
+    <row r="25" spans="2:5">
+      <c r="B25" s="7"/>
+      <c r="C25" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="D25" s="7"/>
+    </row>
+    <row r="26" spans="2:5">
+      <c r="B26" s="7"/>
+      <c r="C26" s="8" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="25" spans="2:5">
-      <c r="B25" s="8"/>
-      <c r="C25" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="D25" s="8"/>
-    </row>
-    <row r="26" spans="2:5">
-      <c r="B26" s="8"/>
-      <c r="C26" s="9" t="s">
+      <c r="D26" s="7"/>
+    </row>
+    <row r="27" spans="2:5">
+      <c r="B27" s="7"/>
+      <c r="C27" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="D26" s="8"/>
-    </row>
-    <row r="27" spans="2:5">
-      <c r="B27" s="8"/>
-      <c r="C27" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="D27" s="8"/>
+      <c r="D27" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1352,8 +1358,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:Q11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1367,54 +1373,54 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:17" ht="23.25">
-      <c r="B2" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
+      <c r="B2" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
     </row>
     <row r="4" spans="2:17" ht="15.75">
-      <c r="B4" s="28" t="s">
-        <v>54</v>
-      </c>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
-      <c r="H4" s="28" t="s">
-        <v>54</v>
-      </c>
-      <c r="I4" s="28"/>
-      <c r="J4" s="28"/>
-      <c r="K4" s="28"/>
-      <c r="N4" s="29" t="s">
-        <v>54</v>
-      </c>
-      <c r="O4" s="29"/>
-      <c r="P4" s="29"/>
-      <c r="Q4" s="29"/>
+      <c r="B4" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="H4" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="I4" s="15"/>
+      <c r="J4" s="15"/>
+      <c r="K4" s="15"/>
+      <c r="N4" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="O4" s="16"/>
+      <c r="P4" s="16"/>
+      <c r="Q4" s="16"/>
     </row>
     <row r="5" spans="2:17" ht="21" customHeight="1">
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="17" t="s">
         <v>1</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
-      <c r="H5" s="12" t="s">
+      <c r="H5" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="I5" s="15"/>
-      <c r="J5" s="15"/>
-      <c r="K5" s="15"/>
-      <c r="N5" s="12" t="s">
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="10"/>
+      <c r="N5" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="O5" s="15"/>
-      <c r="P5" s="15"/>
-      <c r="Q5" s="15"/>
+      <c r="O5" s="10"/>
+      <c r="P5" s="10"/>
+      <c r="Q5" s="10"/>
     </row>
     <row r="6" spans="2:17">
-      <c r="B6" s="13"/>
+      <c r="B6" s="18"/>
       <c r="C6" s="3" t="s">
         <v>4</v>
       </c>
@@ -1422,9 +1428,9 @@
         <v>5</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="H6" s="13"/>
+        <v>63</v>
+      </c>
+      <c r="H6" s="18"/>
       <c r="I6" s="3" t="s">
         <v>4</v>
       </c>
@@ -1432,9 +1438,9 @@
         <v>5</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="N6" s="13"/>
+        <v>63</v>
+      </c>
+      <c r="N6" s="18"/>
       <c r="O6" s="3" t="s">
         <v>4</v>
       </c>
@@ -1442,154 +1448,164 @@
         <v>5</v>
       </c>
       <c r="Q6" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" spans="2:17">
-      <c r="B7" s="30"/>
-      <c r="C7" s="30" t="s">
+      <c r="B7" s="31" t="s">
+        <v>71</v>
+      </c>
+      <c r="C7" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="30" t="s">
+      <c r="D7" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="30">
+      <c r="E7" s="11">
         <v>5</v>
       </c>
-      <c r="H7" s="30"/>
-      <c r="I7" s="30" t="s">
+      <c r="H7" s="31" t="s">
+        <v>71</v>
+      </c>
+      <c r="I7" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="J7" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="K7" s="11">
+        <v>5</v>
+      </c>
+      <c r="N7" s="31" t="s">
+        <v>71</v>
+      </c>
+      <c r="O7" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="P7" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q7" s="11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="2:17">
+      <c r="B8" s="11"/>
+      <c r="C8" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="11">
+        <v>10</v>
+      </c>
+      <c r="H8" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="I8" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="30" t="s">
+      <c r="J8" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="K7" s="30">
+      <c r="K8" s="11">
         <v>5</v>
       </c>
-      <c r="N7" s="30"/>
-      <c r="O7" s="30" t="s">
+      <c r="N8" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="O8" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="P8" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q8" s="11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="2:17">
+      <c r="B9" s="11"/>
+      <c r="C9" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="11">
+        <v>10</v>
+      </c>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="J9" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="K9" s="11">
+        <v>15</v>
+      </c>
+      <c r="N9" s="11"/>
+      <c r="O9" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="P7" s="30" t="s">
+      <c r="P9" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="Q7" s="30">
+      <c r="Q9" s="11">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="2:17">
-      <c r="B8" s="30"/>
-      <c r="C8" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" s="30" t="s">
+    <row r="10" spans="2:17">
+      <c r="B10" s="11"/>
+      <c r="C10" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="30">
+      <c r="E10" s="11">
+        <v>15</v>
+      </c>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c r="N10" s="11"/>
+      <c r="O10" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="P10" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q10" s="11">
         <v>10</v>
       </c>
-      <c r="H8" s="30"/>
-      <c r="I8" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="J8" s="30" t="s">
-        <v>7</v>
-      </c>
-      <c r="K8" s="30">
-        <v>5</v>
-      </c>
-      <c r="N8" s="30"/>
-      <c r="O8" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="P8" s="30" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q8" s="30">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="2:17">
-      <c r="B9" s="30"/>
-      <c r="C9" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" s="30" t="s">
+    </row>
+    <row r="11" spans="2:17">
+      <c r="B11" s="11"/>
+      <c r="C11" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="E9" s="30">
+      <c r="E11" s="11">
+        <v>15</v>
+      </c>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+      <c r="N11" s="11"/>
+      <c r="O11" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="P11" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="H9" s="30"/>
-      <c r="I9" s="30" t="s">
-        <v>14</v>
-      </c>
-      <c r="J9" s="30" t="s">
-        <v>10</v>
-      </c>
-      <c r="K9" s="30">
-        <v>15</v>
-      </c>
-      <c r="N9" s="30"/>
-      <c r="O9" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="P9" s="30" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q9" s="30">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="2:17">
-      <c r="B10" s="30"/>
-      <c r="C10" s="30" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" s="30" t="s">
-        <v>10</v>
-      </c>
-      <c r="E10" s="30">
-        <v>15</v>
-      </c>
-      <c r="H10" s="14"/>
-      <c r="I10" s="14"/>
-      <c r="J10" s="14"/>
-      <c r="K10" s="14"/>
-      <c r="N10" s="30"/>
-      <c r="O10" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="P10" s="30" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q10" s="30">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="2:17">
-      <c r="B11" s="30"/>
-      <c r="C11" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="D11" s="30" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" s="30">
-        <v>15</v>
-      </c>
-      <c r="H11" s="14"/>
-      <c r="I11" s="14"/>
-      <c r="J11" s="14"/>
-      <c r="K11" s="14"/>
-      <c r="N11" s="30"/>
-      <c r="O11" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="P11" s="30" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q11" s="30">
+      <c r="Q11" s="11">
         <v>10</v>
       </c>
     </row>
@@ -1624,7 +1640,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2:D3"/>
     </sheetView>
   </sheetViews>
@@ -1632,16 +1648,16 @@
   <sheetData>
     <row r="1" spans="2:4" ht="15.75" thickBot="1"/>
     <row r="2" spans="2:4">
-      <c r="B2" s="22" t="s">
-        <v>66</v>
-      </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="24"/>
+      <c r="B2" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="C2" s="20"/>
+      <c r="D2" s="21"/>
     </row>
     <row r="3" spans="2:4" ht="15.75" thickBot="1">
-      <c r="B3" s="25"/>
-      <c r="C3" s="26"/>
-      <c r="D3" s="27"/>
+      <c r="B3" s="22"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1664,16 +1680,16 @@
   <sheetData>
     <row r="1" spans="2:4" ht="15.75" thickBot="1"/>
     <row r="2" spans="2:4">
-      <c r="B2" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="C2" s="17"/>
-      <c r="D2" s="18"/>
+      <c r="B2" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="C2" s="26"/>
+      <c r="D2" s="27"/>
     </row>
     <row r="3" spans="2:4" ht="15.75" thickBot="1">
-      <c r="B3" s="19"/>
-      <c r="C3" s="20"/>
-      <c r="D3" s="21"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="1">
